--- a/biology/Médecine/Gaëlle_Krikorian/Gaëlle_Krikorian.xlsx
+++ b/biology/Médecine/Gaëlle_Krikorian/Gaëlle_Krikorian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Krikorian</t>
+          <t>Gaëlle_Krikorian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaëlle Krikorian, née en 1972, est une chercheuse en sciences sociales française, militante dans les domaines de l’accès aux soins et des droits des minorités. Elle participe également à la réflexion sur la place des communs dans la société.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Krikorian</t>
+          <t>Gaëlle_Krikorian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaëlle Krikorian a grandi à Sainte-Maxime, dans le sud de la France[1],[2].
-Docteur en sociologie à l'EHESS, ses travaux portent sur le rôle de l’action collective dans la production de politiques publiques, la place de l’expertise légale et technique dans les controverses politiques[3],[4],[5],[6], l’articulation entre économie morale et économie politique au sein de conflits entre acteurs non gouvernementaux (notamment associatifs et industriels) visant à influencer l’action gouvernementale. L'un de ses terrains de prédilection porte sur les politiques dans le domaine pharmaceutique et celui de la propriété intellectuelle[2],[7],[8],[9],[10],[11],[12].
-À partir de 2005, elle rejoint le CREPS (qui deviendra par la suite l’IRIS[13]) dans le cadre d’un projet de recherche financé par l’Agence Nationale de recherche sur le VIH/sida et les hépatites (ANRS). À la suite de ce projet, elle prépare, à l’École des hautes études en sciences sociales, une thèse de doctorat en sociologie sous la direction de Didier Fassin, thèse qu’elle soutient en janvier 2014[4]. Intitulée La propriété ou la vie ? Économies morales, actions collectives et politiques du médicament dans la négociation d'accords de libre-échange. Maroc, Thaïlande, États-Unis, elle étudie la production dans le contexte de la globalisation de règles de droits et de politiques de propriété intellectuelle ayant un impact sur l’accès aux médicaments[1].
-De 2011 à 2015, elle travaille comme conseillère sur les questions de propriété intellectuelle et d'accès au savoir pour le Groupe des Verts/Alliance libre européenne au Parlement européen à Bruxelles[14]. 
-Militante à Act Up-Paris à partir de 1996[2], elle est salariée de l’organisation jusqu’en 2004 où elle coordonne la commission « nord/sud » dont le travail porte sur les politiques internationales de lutte contre le sida et la question de l’accès aux antirétroviraux dans les pays du Sud[15],[16],[2]. En 1999, dans le cadre d'une campagne d'opinion lancée par Act Up, elle s'exprime dans l'Humanité sur la question de l’accès aux médicaments contre le sida dans les pays en développement[17]. En 2002, elle est vice-présidente d’Act Up-Paris[18]. Elle poursuit son engagement pour le développement d'alternatives aux monopoles comme mode de financement de la recherche médicale[19],[20],[21],[22], et plus largement est très engagée dans la protection, la revalorisation et la promotion des communs[23] comme élément clef d'organisation, notamment politique, de la société[24].
-Active au sein de plusieurs groupes féministes[25], elle est très engagée dans La Barbe, un groupe d’action féministe créé en 2008, aux côtés d’autres anciennes militantes d’Act Up-Paris, dont Marie de Cenival, qui est à l'origine du groupe[26],[27]. Elle est très engagée également auprès de l'association féministe Les Tumultueuses[28]. 
-Entre 2007 et 2010, elle contribue à la série d’ouvrages « Cette France-là » destinés à analyser et faire la chronique de la politique d'immigration et d'identité nationale mise en œuvre par Nicolas Sarkozy durant son mandat présidentiel[29]. Elle est depuis partie prenante de mobilisations pour les droits des migrants[30].
-De 2018 à 2020, elle est directrice des politiques de la campagne d'accès aux médicaments de Médecins sans frontières[31],[32]. Dans ce cadre, elle critique l'octroi du brevet du laboratoire Gilead pour le sofosbuvir, alors que des médicaments génériques existent[33].
-Par ailleurs, en 2018, elle pointe le manque d'encadrement légal des procédures d'identification par l'ADN[34].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaëlle Krikorian a grandi à Sainte-Maxime, dans le sud de la France,.
+Docteur en sociologie à l'EHESS, ses travaux portent sur le rôle de l’action collective dans la production de politiques publiques, la place de l’expertise légale et technique dans les controverses politiques l’articulation entre économie morale et économie politique au sein de conflits entre acteurs non gouvernementaux (notamment associatifs et industriels) visant à influencer l’action gouvernementale. L'un de ses terrains de prédilection porte sur les politiques dans le domaine pharmaceutique et celui de la propriété intellectuelle.
+À partir de 2005, elle rejoint le CREPS (qui deviendra par la suite l’IRIS) dans le cadre d’un projet de recherche financé par l’Agence Nationale de recherche sur le VIH/sida et les hépatites (ANRS). À la suite de ce projet, elle prépare, à l’École des hautes études en sciences sociales, une thèse de doctorat en sociologie sous la direction de Didier Fassin, thèse qu’elle soutient en janvier 2014. Intitulée La propriété ou la vie ? Économies morales, actions collectives et politiques du médicament dans la négociation d'accords de libre-échange. Maroc, Thaïlande, États-Unis, elle étudie la production dans le contexte de la globalisation de règles de droits et de politiques de propriété intellectuelle ayant un impact sur l’accès aux médicaments.
+De 2011 à 2015, elle travaille comme conseillère sur les questions de propriété intellectuelle et d'accès au savoir pour le Groupe des Verts/Alliance libre européenne au Parlement européen à Bruxelles. 
+Militante à Act Up-Paris à partir de 1996, elle est salariée de l’organisation jusqu’en 2004 où elle coordonne la commission « nord/sud » dont le travail porte sur les politiques internationales de lutte contre le sida et la question de l’accès aux antirétroviraux dans les pays du Sud. En 1999, dans le cadre d'une campagne d'opinion lancée par Act Up, elle s'exprime dans l'Humanité sur la question de l’accès aux médicaments contre le sida dans les pays en développement. En 2002, elle est vice-présidente d’Act Up-Paris. Elle poursuit son engagement pour le développement d'alternatives aux monopoles comme mode de financement de la recherche médicale et plus largement est très engagée dans la protection, la revalorisation et la promotion des communs comme élément clef d'organisation, notamment politique, de la société.
+Active au sein de plusieurs groupes féministes, elle est très engagée dans La Barbe, un groupe d’action féministe créé en 2008, aux côtés d’autres anciennes militantes d’Act Up-Paris, dont Marie de Cenival, qui est à l'origine du groupe,. Elle est très engagée également auprès de l'association féministe Les Tumultueuses. 
+Entre 2007 et 2010, elle contribue à la série d’ouvrages « Cette France-là » destinés à analyser et faire la chronique de la politique d'immigration et d'identité nationale mise en œuvre par Nicolas Sarkozy durant son mandat présidentiel. Elle est depuis partie prenante de mobilisations pour les droits des migrants.
+De 2018 à 2020, elle est directrice des politiques de la campagne d'accès aux médicaments de Médecins sans frontières,. Dans ce cadre, elle critique l'octroi du brevet du laboratoire Gilead pour le sofosbuvir, alors que des médicaments génériques existent.
+Par ailleurs, en 2018, elle pointe le manque d'encadrement légal des procédures d'identification par l'ADN.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%ABlle_Krikorian</t>
+          <t>Gaëlle_Krikorian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gaëlle Krikorian, « Le sida face aux impératifs économiques », dans Jeanne-Marie Amat-Roze, Bilan de santé : L’Afrique face à ses défis sanitaires, Colophon, 2001 (ISBN 978-2-930254-05-0), p. 61-76.
 Gaëlle Krikorian, « Transphobie », dans Louis-Georges Tin, Dictionnaire de l'homophobie, Paris, PUF, 2003 (ISBN 978-2-13-053582-9).
